--- a/data/group/fourthpart.xlsx
+++ b/data/group/fourthpart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm\GAP\data\group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F4F8E-D80B-4848-B493-261195CA3CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455C1C68-0EF5-46D0-A09D-69F4FE9E985B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30135" yWindow="930" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,6 @@
     <t>YangtzeRiverExpress</t>
   </si>
   <si>
-    <t>Aisa Medical</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>886L</t>
   </si>
   <si>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>912R</t>
+  </si>
+  <si>
+    <t>AisaMedical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:BC17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,37 +587,37 @@
         <v>925</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -754,42 +754,42 @@
         <v>925</v>
       </c>
       <c r="AS2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>874</v>
@@ -921,37 +921,37 @@
         <v>925</v>
       </c>
       <c r="AS3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ3" s="1" t="s">
+      <c r="BA3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
@@ -1088,37 +1088,37 @@
         <v>925</v>
       </c>
       <c r="AS4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.25">
@@ -1255,37 +1255,37 @@
         <v>925</v>
       </c>
       <c r="AS5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
@@ -1422,37 +1422,37 @@
         <v>925</v>
       </c>
       <c r="AS6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="BA6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BB6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BC6" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
@@ -1589,37 +1589,37 @@
         <v>925</v>
       </c>
       <c r="AS7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="BA7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BC7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
@@ -1756,37 +1756,37 @@
         <v>925</v>
       </c>
       <c r="AS8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AU8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW8" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="BA8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BB8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB8" s="1" t="s">
+      <c r="BC8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
@@ -1923,37 +1923,37 @@
         <v>925</v>
       </c>
       <c r="AS9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="BA9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB9" s="1" t="s">
+      <c r="BC9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
@@ -2090,37 +2090,37 @@
         <v>925</v>
       </c>
       <c r="AS10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="AU10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV10" s="1" t="s">
+      <c r="AW10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AX10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AY10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ10" s="1" t="s">
+      <c r="BA10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BB10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB10" s="1" t="s">
+      <c r="BC10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
@@ -2257,37 +2257,37 @@
         <v>925</v>
       </c>
       <c r="AS11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT11" s="1" t="s">
+      <c r="AU11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AV11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV11" s="1" t="s">
+      <c r="AW11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ11" s="1" t="s">
+      <c r="BA11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BB11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB11" s="1" t="s">
+      <c r="BC11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC11" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
@@ -2424,37 +2424,37 @@
         <v>925</v>
       </c>
       <c r="AS12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT12" s="1" t="s">
+      <c r="AU12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU12" s="1" t="s">
+      <c r="AV12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV12" s="1" t="s">
+      <c r="AW12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AX12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX12" s="1" t="s">
+      <c r="AY12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY12" s="1" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ12" s="1" t="s">
+      <c r="BA12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB12" s="1" t="s">
+      <c r="BC12" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
@@ -2591,37 +2591,37 @@
         <v>925</v>
       </c>
       <c r="AS13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT13" s="1" t="s">
+      <c r="AU13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU13" s="1" t="s">
+      <c r="AV13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV13" s="1" t="s">
+      <c r="AW13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW13" s="1" t="s">
+      <c r="AX13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AY13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY13" s="1" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ13" s="1" t="s">
+      <c r="BA13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BB13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB13" s="1" t="s">
+      <c r="BC13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
@@ -2758,37 +2758,37 @@
         <v>925</v>
       </c>
       <c r="AS14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT14" s="1" t="s">
+      <c r="AU14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ14" s="1" t="s">
+      <c r="BA14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BB14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB14" s="1" t="s">
+      <c r="BC14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
@@ -2925,37 +2925,37 @@
         <v>925</v>
       </c>
       <c r="AS15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AU15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AV15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV15" s="1" t="s">
+      <c r="AW15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW15" s="1" t="s">
+      <c r="AX15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX15" s="1" t="s">
+      <c r="AY15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY15" s="1" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ15" s="1" t="s">
+      <c r="BA15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA15" s="1" t="s">
+      <c r="BB15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB15" s="1" t="s">
+      <c r="BC15" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC15" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
@@ -3092,37 +3092,37 @@
         <v>925</v>
       </c>
       <c r="AS16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT16" s="1" t="s">
+      <c r="AU16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU16" s="1" t="s">
+      <c r="AV16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV16" s="1" t="s">
+      <c r="AW16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW16" s="1" t="s">
+      <c r="AX16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY16" s="1" t="s">
+      <c r="AZ16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ16" s="1" t="s">
+      <c r="BA16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC16" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:55" x14ac:dyDescent="0.25">
@@ -3259,37 +3259,37 @@
         <v>925</v>
       </c>
       <c r="AS17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AT17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AU17" s="1" t="s">
+      <c r="AV17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AV17" s="1" t="s">
+      <c r="AW17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AW17" s="1" t="s">
+      <c r="AX17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AX17" s="1" t="s">
+      <c r="AY17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AY17" s="1" t="s">
+      <c r="AZ17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AZ17" s="1" t="s">
+      <c r="BA17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BA17" s="1" t="s">
+      <c r="BB17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="BB17" s="1" t="s">
+      <c r="BC17" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="BC17" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
